--- a/biology/Botanique/Patata_novella_Sieglinde_di_Galatina/Patata_novella_Sieglinde_di_Galatina.xlsx
+++ b/biology/Botanique/Patata_novella_Sieglinde_di_Galatina/Patata_novella_Sieglinde_di_Galatina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Patata novella Sieglinde di Galatina, ou Siglinda te galatina en dialecte salentin, (pomme de terre nouvelle Sieglinde de Galatina) est une appellation italienne qui s'applique à une production traditionnelle de pommes de terre, cultivée dans les Pouilles. 
@@ -517,7 +529,9 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété cultivée est la 'Sieglinde', variété relativement ancienne, d'origine allemande, créée en 1935 par le semencier Kartoffelzucht Böhm.
 Introduite dès 1939 dans la région du Salento, la 'Sieglinde' s'est révélée très adaptée au climat particulièrement doux de cette région ainsi qu'aux sols de « terre rouge » aussi appelée sinopia.   
@@ -549,7 +563,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de production de la « Patata novella Sieglinde di Galatina » s'étend le long des côtes apuliennes de la mer Ionienne et dans le Salento (province de Lecce), dans le « talon » de la botte italienne. Les communes les plus concernées sont les suivantes : Alliste, Galatina, Matino, Melissano, Presicce, Racale, Taviano et Ugento.
 </t>
@@ -580,7 +596,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tubercules, de taille moyenne, ont une forme ovale allongée.
 La peau, lisse, aux yeux très superficiels, est de couleur jaune.
@@ -614,9 +632,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette pomme de terre est classée parmi les pommes de terre à chair ferme (catégorie A-B selon l'Association européenne de recherche sur la pomme de terre[1]), qui se caractérisent par une bonne tenue à la cuisson. Elle est adaptée en particulier pour la cuisson à la vapeur et la préparation de salades.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette pomme de terre est classée parmi les pommes de terre à chair ferme (catégorie A-B selon l'Association européenne de recherche sur la pomme de terre), qui se caractérisent par une bonne tenue à la cuisson. Elle est adaptée en particulier pour la cuisson à la vapeur et la préparation de salades.
 </t>
         </is>
       </c>
